--- a/biology/Botanique/Ceramium/Ceramium.xlsx
+++ b/biology/Botanique/Ceramium/Ceramium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceramium est un genre d'algues rouges de la famille des Ceramiaceae, comprenant environ 200 espèces.
 </t>
@@ -511,10 +523,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ceramium vient du grec « en forme de corne »[1], illustrant la morphologie des apex fourchus ou « extrémités enroulées en crosse ».
-Une autre hypothèse fait remonter l'étymologie au grec ceramion, céramique, terme impropre car s'appliquant à l'origine à la description des structures reproductives de Gracilaria qui ressemblent à des cruches en céramique[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ceramium vient du grec « en forme de corne », illustrant la morphologie des apex fourchus ou « extrémités enroulées en crosse ».
+Une autre hypothèse fait remonter l'étymologie au grec ceramion, céramique, terme impropre car s'appliquant à l'origine à la description des structures reproductives de Gracilaria qui ressemblent à des cruches en céramique.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les espèces de Ceramium sont des algues au thalle filamenteux à la ramification dichotomique irrégulière, de couleur rouge clair à rouge bordeaux. Leur développement n'excède pas 30 cm de longueur. L'apex fourchu de leurs filaments montre deux pointes caractéristiques, en forme de cornes ou de pince.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elles croissent sous forme de touffes depuis la zone intertidale moyenne jusqu'à la zone subtidale (jusqu'à 30 m de profondeur), typiquement dans les flaques littorales, sur les rochers ou en épiphyte sur les autres algues.
 </t>
@@ -605,9 +623,11 @@
           <t>Quelques données scientifiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des espèces de ce groupe ont été étudiées pour certains de leurs composés présentant des caractéristiques antibiotiques[3], pour leurs pigments photosynthétiques[4], du point de vue de leur capacité à bioaccumuler certains polluants (par exemple présents dans les sédiments portuaires de la côte ouest de la Suède[5], pour certains de leurs composés biochimiques (ex : Amino-acides proches des mycosporines[6], en tant qu'espèces potentiellement bioindicatrices de pollution marine[7] ou à absorber certains polluants (composés aromatiques bromés par exemple[8]). Cette algue rouge pourrait être utilisée comme biosorbant pour extraire des ions cuivre (Cu 2+) d'eau polluée (le cuivre, largement utilisé dans les antifooling est hautement toxique pour de nombreux micro-organismes aquatiques (marins notamment)[9].Certaines espèces semblent avoir ou pouvoir développer un caractère invasif là où elles ont été  introduites hors de leur aire naturelle de répartition[10]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des espèces de ce groupe ont été étudiées pour certains de leurs composés présentant des caractéristiques antibiotiques, pour leurs pigments photosynthétiques, du point de vue de leur capacité à bioaccumuler certains polluants (par exemple présents dans les sédiments portuaires de la côte ouest de la Suède, pour certains de leurs composés biochimiques (ex : Amino-acides proches des mycosporines, en tant qu'espèces potentiellement bioindicatrices de pollution marine ou à absorber certains polluants (composés aromatiques bromés par exemple). Cette algue rouge pourrait être utilisée comme biosorbant pour extraire des ions cuivre (Cu 2+) d'eau polluée (le cuivre, largement utilisé dans les antifooling est hautement toxique pour de nombreux micro-organismes aquatiques (marins notamment).Certaines espèces semblent avoir ou pouvoir développer un caractère invasif là où elles ont été  introduites hors de leur aire naturelle de répartition
 </t>
         </is>
       </c>
@@ -636,10 +656,12 @@
           <t>Usages médicinaux</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Des composés de Ceramium boydenii présentent des propriétés anti-inflammatoires[11]
-Ceramium kondoi a été utilisée ou l'est encore en médecine traditionnelle (en Corée notamment), mais doit l'être avec prudence en raison de risques de pancréatite ou lésion hépatique iatrogène (médicamenteuse). Par exemple en 2013 Kim et ses collaborateurs ont signalé ce désordre chez une patiente coréenne de 58 ans traitée pour un cancer gastrique (après une gastrectomie totale avec chimiothérapie adjuvante réalisée sans complications) ; des douleurs abdominales sévères sont apparues chez cette patience après quatre semaines de prescription de Ceramium kondoi ; le pancréas avait gonflé et était infiltré de graisse. L'arrêt de prise de Ceramium kondoi a été suivi d'une amélioration clinique et biochimique[12].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Des composés de Ceramium boydenii présentent des propriétés anti-inflammatoires
+Ceramium kondoi a été utilisée ou l'est encore en médecine traditionnelle (en Corée notamment), mais doit l'être avec prudence en raison de risques de pancréatite ou lésion hépatique iatrogène (médicamenteuse). Par exemple en 2013 Kim et ses collaborateurs ont signalé ce désordre chez une patiente coréenne de 58 ans traitée pour un cancer gastrique (après une gastrectomie totale avec chimiothérapie adjuvante réalisée sans complications) ; des douleurs abdominales sévères sont apparues chez cette patience après quatre semaines de prescription de Ceramium kondoi ; le pancréas avait gonflé et était infiltré de graisse. L'arrêt de prise de Ceramium kondoi a été suivi d'une amélioration clinique et biochimique.</t>
         </is>
       </c>
     </row>
@@ -667,9 +689,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (26 juillet 2013)[13] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (26 juillet 2013) :
 Ceramium abyssale Petersen
 Ceramium acrocarpum Kützing (Sans vérification)
 Ceramium acrocarpum Zanardini (Sans vérification)
@@ -1081,7 +1105,7 @@
 Ceramium womersleyi R.E.Norris &amp; I.A.Abbott
 Ceramium wulfenii Roth (Sans vérification)
 Ceramium zacae Setchell &amp; N.L.Gardner
-Selon ITIS      (26 juillet 2013)[14] :
+Selon ITIS      (26 juillet 2013) :
 Ceramium affine
 Ceramium areschougii Kylin
 Ceramium boydeni
@@ -1141,7 +1165,7 @@
 Ceramium virgatum Roth, 1797
 Ceramium washingtoniense
 Ceramium zacae
-Selon NCBI  (26 juillet 2013)[15] :
+Selon NCBI  (26 juillet 2013) :
 Ceramium affine
 Ceramium botryocarpum
 Ceramium boydenii
